--- a/11.엑셀에서 읽어 이메일 자동으로 보내기/이메일.xlsx
+++ b/11.엑셀에서 읽어 이메일 자동으로 보내기/이메일.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vmfhd\OneDrive\바탕 화면\ChatGpt-Python\11.엑셀에서 읽어 이메일 자동으로 보내기\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EA4912-05F7-4674-97E7-C11F0BCA957C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A0E00-62DE-46EB-9170-3002E948EEEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4215" yWindow="420" windowWidth="17475" windowHeight="14835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hello@example.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hi@example.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장다인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>김땡땡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -64,6 +56,14 @@
   </si>
   <si>
     <t>이재혁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이형준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joon010315@naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +403,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -418,34 +418,34 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
